--- a/document/Shopping-Session.xlsx
+++ b/document/Shopping-Session.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Year3_Semester2\E-Commerce\Phân tích thiết kế\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC69B6ED-8123-40AD-B4E6-F542FEAF24D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC8780C-AE9C-4AA2-9673-ECFB12B75CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CEDE4694-DC51-4D85-ADCC-94E0EF472F12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t xml:space="preserve"> Program Outline</t>
   </si>
@@ -77,67 +77,166 @@
     <t>Product details</t>
   </si>
   <si>
-    <t>Chuyển giao diện qua trang giỏ hàng</t>
-  </si>
-  <si>
-    <t>2.2. Xử lý click button chọn số lượng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1. Hiển thị giao diện các mặt hàng nằm trong giỏ hàng. </t>
-  </si>
-  <si>
-    <t>Cho phép khách hàng lựa chọn lại số lượng mặt hàng muốn mua trong giỏ hàng.</t>
-  </si>
-  <si>
-    <t>1.2. Giá trị mặc định của ô số lượng lấy từ lựa chọn của khách hàng từ tiến trình mua hàng.</t>
-  </si>
-  <si>
-    <t>1.3. Giá hiển thị của sản phẩm là giá của một sản phẩm lấy dữ liệu từ database</t>
-  </si>
-  <si>
     <t>2.1. Xử lý khi click button tiếp tục mua hàng</t>
   </si>
   <si>
-    <t>Chuyển giao diện qua trang mặt hàng để khách hàng tiếp tục lựa chọn và mua hàng</t>
-  </si>
-  <si>
     <t>2.3. Xử lý label tổng tiền</t>
   </si>
   <si>
-    <t xml:space="preserve">Tổng tiền bằng tổng giá của tất cả các sản phẩm. </t>
-  </si>
-  <si>
-    <t>2.4. Xử lý button thanh toán</t>
-  </si>
-  <si>
-    <t>Hiển thị giao diện cho khách hàng nhập địa chỉ giao hàng.</t>
-  </si>
-  <si>
     <t>Xử lý các bước cho khách hàng khi thanh toán đơn hàng</t>
   </si>
   <si>
-    <t>Sau khi người dùng nhập đầy đủ thông tin địa chỉ giao hàng. Sau đó nhấn tiếp tục.</t>
-  </si>
-  <si>
-    <t>Cho người dùng chọn phương thức thanh toán. Sau đó nhấn tiếp tục.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sau khi người dùng nhấn tiếp tục. Hiển thị giao diện mua hàng bao gồm </t>
-  </si>
-  <si>
-    <t>Thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>Thông tin mua hàng</t>
-  </si>
-  <si>
-    <t>Địa chỉ giao hàng</t>
-  </si>
-  <si>
-    <t>Tổng giá = giá hàng hóa + giá vận chuyển</t>
-  </si>
-  <si>
-    <t>Người dùng nhấn vào nút thanh toán và xác nhận giao dịch để mua hàng</t>
+    <t xml:space="preserve">1.1. Hiển thị danh sách các product trong cart từ DB lên giao diện </t>
+  </si>
+  <si>
+    <t>1.2. Giá trị mặc định của ô số lượng lấy từ giá trị count của khách hàng từ tiến trình mua hàng.</t>
+  </si>
+  <si>
+    <t>1.3. Giá hiển thị của sản phẩm lấy từ price tương ứng trong DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiển chuyển giao diện về trang chủ </t>
+  </si>
+  <si>
+    <t>Cho phép người dùng lựa chọn và thực hiện thêm các mặt hàng vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>2.2. Xử lý Click button Chọn số lượng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách số lượng còn lại của mặt hàng mà người dùng có thể chọn. Số lượng cao nhất = maxCount</t>
+  </si>
+  <si>
+    <t>Khi người dùng lựa chọn 1 trong các số lượng tương ứng</t>
+  </si>
+  <si>
+    <t>Cập nhật totalPrice = count * price</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin số lượng lên cbb</t>
+  </si>
+  <si>
+    <t>Total = tổng các totalPrice</t>
+  </si>
+  <si>
+    <t>Thực hiện update Total mỗi lần người dùng Click chọn số lượng mới hoặc thêm sản phẩm mới</t>
+  </si>
+  <si>
+    <t>2.4. Xử lý khi Click button Delete</t>
+  </si>
+  <si>
+    <t>Khi người dùng Click vào nút Delete thực hiện xóa product khỏi cart trong DB và làm mới giao diện.</t>
+  </si>
+  <si>
+    <t>2.5. Xử lý label Tổng sản phẩm</t>
+  </si>
+  <si>
+    <t>Thực hiện đếm số product hiện có trong cart và hiển thị ra màn hình: "Tổng số sản phẩm trong giỏ hàng ({count})"</t>
+  </si>
+  <si>
+    <t>2.6. Xử lý button thanh toán</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện yêu cầu người dùng cho nhập địa chỉ giao hàng gồm các trường:</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>postalcode</t>
+  </si>
+  <si>
+    <t>Kiểm tra input của người dùng vào các trường tương ứng bên trên.</t>
+  </si>
+  <si>
+    <t>Nếu người dùng đã nhập đầy đủ input tất cả các trường</t>
+  </si>
+  <si>
+    <t>Lưu dữ liệu vào DB và thực hiện chuyển giao diện sang trang Phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>Nếu người dùng chưa nhập đầy đủ input tất cả các trường</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo: "Please fill out this field" tại trường còn thiếu và ngừng xử lý.</t>
+  </si>
+  <si>
+    <t>2.6.1. Xử lý khi người dùng Click button Tiếp tục tại trang Địa chỉ giao hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra xem người dùng đã check radioButton lựa chọn Phương thức thanh toán chưa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Nếu radioButton chưa được check, bỏ qua và ngừng xử lý</t>
+  </si>
+  <si>
+    <t>2.6.1.1. Xử lý khi người dùng Click button Tiếp tục tại trang Phuong thức thanh toán</t>
+  </si>
+  <si>
+    <t>2.6.1.1.1. Xử lý trang thanh toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Lấy các product trong cart từ DB và hiển thị lên màn hình bao gồm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                nameProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                totalPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Lấy thông tin khách hàng từ DB và hiển thị lên màn hình bao gồm:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                nameCustomer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Nếu radioButton đã được check, lưu thông tin thanh toán vào DB và chuyển sang trang thanh toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                payment methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                deliveryAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2.6.1.1.1.1. Xử lý table Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Hiển thị thông tin tương ứng lên các trường.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Mua hàng: totalPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Vận chuyển: deliveryShip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Phí bưu điện: postageFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Thanh toán: total = totalPrice + deliveryShip + postageFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2.6.1.1.1.2. Xử lý khi click button Thanh toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Hiển thị 2 button cho phép thanh toán bằng "Paypal", "Debit or Credit Card"</t>
   </si>
 </sst>
 </file>
@@ -210,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -604,12 +703,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -698,11 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,6 +894,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,6 +1051,50 @@
         <a:xfrm>
           <a:off x="67520" y="800583"/>
           <a:ext cx="5131442" cy="2539302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95491</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>20062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0E8C08-D95A-D035-8E64-334D85918834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334241" y="10916662"/>
+          <a:ext cx="10591559" cy="4713297"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A379C9-C937-4045-B884-518D9F5F8D7E}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A22" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1258,26 +1420,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
@@ -1292,18 +1454,18 @@
     <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1652,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBE3B27-7E74-43DE-9E7A-82E6F7816E75}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1673,71 +1835,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="74" t="s">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="77"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="38"/>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="63"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="37"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="63" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="64"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -1805,7 +1967,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="B9" s="33" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -1823,7 +1985,7 @@
       <c r="A10" s="29"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="28"/>
@@ -1840,7 +2002,7 @@
       <c r="A11" s="29"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -1856,7 +2018,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="33" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -1874,7 +2036,7 @@
       <c r="A13" s="29"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -1889,11 +2051,11 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="B14" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
@@ -1907,11 +2069,11 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="28"/>
-      <c r="C15" s="28" t="s">
-        <v>22</v>
-      </c>
+      <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="E15" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1923,12 +2085,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
-      <c r="B16" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="E16" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1939,247 +2101,799 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="25"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="25"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="25"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="78"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="78"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="78"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="78"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="78"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="78"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="78"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="78"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="45"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="82"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="31"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="86"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="31"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="86"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="31"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="31"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="86"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="86"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="31"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="31"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="31"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="86"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">
